--- a/data/pf_excel.xlsx
+++ b/data/pf_excel.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enriquegon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9adf2784ff621e33/Documentos/GitHub/Explore-proy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{750F2CD3-F67E-3343-9ABE-780AA6FE3BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{750F2CD3-F67E-3343-9ABE-780AA6FE3BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8520155D-A37D-400D-8868-9AFB97DB2427}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="3660" windowWidth="31120" windowHeight="16560" xr2:uid="{48E1DA49-D5EA-744E-B962-83F50A9B7BB9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{48E1DA49-D5EA-744E-B962-83F50A9B7BB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -161,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$]dd/mm/yy;@" x16r2:formatCode16="[$-en-MX,1]dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +184,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -206,37 +214,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -253,7 +262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -569,20 +578,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EA87D3-2F6F-1C4B-B248-ABBC52F09E30}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -593,14 +602,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -610,15 +619,15 @@
       <c r="C3" s="3">
         <v>286542.84000000003</v>
       </c>
-      <c r="F3" s="8">
+      <c r="D3" s="8">
         <f ca="1">ROUNDUP(RAND(),2)</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="G3">
+        <v>0.89</v>
+      </c>
+      <c r="E3">
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -630,34 +639,34 @@
         <f>SUM(C3)</f>
         <v>286542.84000000003</v>
       </c>
-      <c r="F4" s="8">
+      <c r="D4" s="8">
         <f ca="1">ROUNDUP(RAND(),2)</f>
-        <v>0.79</v>
-      </c>
-      <c r="G4">
+        <v>0.49</v>
+      </c>
+      <c r="E4">
         <v>0.23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="F5">
-        <f ca="1">1-F4-F3</f>
-        <v>0.10999999999999997</v>
-      </c>
-      <c r="G5">
+      <c r="D5">
+        <f ca="1">1-D4-D3</f>
+        <v>-0.38</v>
+      </c>
+      <c r="E5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -667,14 +676,14 @@
       <c r="C7" s="3">
         <v>124239.67</v>
       </c>
-      <c r="F7" s="10">
+      <c r="D7" s="10">
         <v>45606</v>
       </c>
-      <c r="G7" s="10">
+      <c r="E7" s="10">
         <v>45763</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -684,8 +693,9 @@
       <c r="C8" s="3">
         <v>657934.63</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -695,12 +705,12 @@
       <c r="C9" s="3">
         <v>351484.28</v>
       </c>
-      <c r="F9" s="10">
-        <f ca="1">RANDBETWEEN(F$7,G$7)</f>
-        <v>45668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="10">
+        <f ca="1">RANDBETWEEN(D$7,E$7)</f>
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -711,7 +721,7 @@
         <v>231954.7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -722,7 +732,7 @@
         <v>199356.44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -733,7 +743,7 @@
         <v>312647.43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -744,7 +754,7 @@
         <v>108871.81999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
@@ -757,19 +767,19 @@
         <v>1986488.97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -780,7 +790,7 @@
         <v>368173.56</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -791,7 +801,7 @@
         <v>194479</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -802,7 +812,7 @@
         <v>44869.37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -813,7 +823,7 @@
         <v>36075.39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -824,7 +834,7 @@
         <v>436205.33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -835,7 +845,7 @@
         <v>566523.73</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -846,7 +856,7 @@
         <v>131535.02000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>38</v>
       </c>
@@ -859,19 +869,19 @@
         <v>1777861.4000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -882,7 +892,7 @@
         <v>411075.85000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -893,7 +903,7 @@
         <v>174038.16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
@@ -904,7 +914,7 @@
         <v>68408.73</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -915,7 +925,7 @@
         <v>105477.40999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -926,7 +936,7 @@
         <v>610143.01</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -937,7 +947,7 @@
         <v>81010.259999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>38</v>
       </c>
@@ -950,19 +960,19 @@
         <v>1450153.4200000002</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
@@ -973,7 +983,7 @@
         <v>293029.84000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
@@ -984,7 +994,7 @@
         <v>736717.77</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
@@ -997,19 +1007,19 @@
         <v>1029747.6100000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>24</v>
       </c>
@@ -1020,7 +1030,7 @@
         <v>504016.49</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1041,7 @@
         <v>144538.80000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>26</v>
       </c>
@@ -1042,7 +1052,7 @@
         <v>675445.86</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
         <v>38</v>
       </c>
@@ -1055,12 +1065,12 @@
         <v>1324001.1499999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
         <v>37</v>
       </c>
@@ -1073,51 +1083,51 @@
         <v>7854795.3900000006</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="3">
         <f ca="1">ROUNDUP(RAND()*1000000,2)</f>
-        <v>209254.74000000002</v>
+        <v>384046.52</v>
       </c>
       <c r="C49" s="3">
         <f ca="1">ROUNDUP(RAND()*B49,2)</f>
-        <v>71519.899999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>323877.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1133,14 +1143,14 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="10">
         <v>45607</v>
       </c>
@@ -1168,7 +1178,7 @@
         <v>42125.335200000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="10">
         <v>45607</v>
       </c>
@@ -1182,7 +1192,7 @@
         <v>20252.564999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="10">
         <v>45612</v>
       </c>
@@ -1196,7 +1206,7 @@
         <v>64604.628400000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="10">
         <v>45612</v>
       </c>
@@ -1210,7 +1220,7 @@
         <v>182771.82560000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>45616</v>
       </c>
@@ -1224,7 +1234,7 @@
         <v>217118.42789999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>45619</v>
       </c>
@@ -1238,7 +1248,7 @@
         <v>30253.054600000007</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <v>45619</v>
       </c>
@@ -1252,7 +1262,7 @@
         <v>90436.687000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>45623</v>
       </c>
@@ -1266,7 +1276,7 @@
         <v>77749.011599999998</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <v>45625</v>
       </c>
@@ -1280,7 +1290,7 @@
         <v>274564.35450000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <v>45626</v>
       </c>
@@ -1294,7 +1304,7 @@
         <v>96699.847200000004</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="10">
         <v>45628</v>
       </c>
@@ -1308,7 +1318,7 @@
         <v>120616.444</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="10">
         <v>45628</v>
       </c>
@@ -1322,7 +1332,7 @@
         <v>68398.210400000011</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="10">
         <v>45628</v>
       </c>
@@ -1336,7 +1346,7 @@
         <v>135655.03050000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="10">
         <v>45629</v>
       </c>
@@ -1350,7 +1360,7 @@
         <v>100327.2259</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="10">
         <v>45630</v>
       </c>
@@ -1364,7 +1374,7 @@
         <v>191450.2512</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="10">
         <v>45631</v>
       </c>
@@ -1378,7 +1388,7 @@
         <v>94559.137200000012</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>45632</v>
       </c>
@@ -1392,7 +1402,7 @@
         <v>35927.700599999996</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="10">
         <v>45632</v>
       </c>
@@ -1406,7 +1416,7 @@
         <v>92043.39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="10">
         <v>45632</v>
       </c>
@@ -1420,7 +1430,7 @@
         <v>43509.54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="10">
         <v>45633</v>
       </c>
@@ -1434,7 +1444,7 @@
         <v>71908.908899999995</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="10">
         <v>45635</v>
       </c>
@@ -1448,7 +1458,7 @@
         <v>109051.3325</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
         <v>45636</v>
       </c>
@@ -1462,7 +1472,7 @@
         <v>256594.50570000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
         <v>45637</v>
       </c>
@@ -1476,7 +1486,7 @@
         <v>75846.81</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="10">
         <v>45638</v>
       </c>
@@ -1490,7 +1500,7 @@
         <v>80841.38440000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="10">
         <v>45639</v>
       </c>
@@ -1505,7 +1515,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="10">
         <v>45639</v>
       </c>
@@ -1519,7 +1529,7 @@
         <v>169445.0871</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="10">
         <v>45642</v>
       </c>
@@ -1533,7 +1543,7 @@
         <v>63039.424800000008</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="10">
         <v>45643</v>
       </c>
@@ -1547,7 +1557,7 @@
         <v>166325.4417</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="10">
         <v>45647</v>
       </c>
@@ -1561,7 +1571,7 @@
         <v>162576.6636</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="10">
         <v>45649</v>
       </c>
@@ -1575,7 +1585,7 @@
         <v>33243.924000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="10">
         <v>45651</v>
       </c>
@@ -1589,7 +1599,7 @@
         <v>57988.675000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="10">
         <v>45652</v>
       </c>
@@ -1603,7 +1613,7 @@
         <v>23951.8004</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="10">
         <v>45653</v>
       </c>
@@ -1617,7 +1627,7 @@
         <v>11904.878700000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="10">
         <v>45653</v>
       </c>
@@ -1631,7 +1641,7 @@
         <v>22574.880899999996</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="10">
         <v>45655</v>
       </c>
@@ -1645,7 +1655,7 @@
         <v>184179.4425</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="10">
         <v>45657</v>
       </c>
@@ -1661,7 +1671,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="10">
         <v>45658</v>
       </c>
@@ -1675,7 +1685,7 @@
         <v>158626.64440000002</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="10">
         <v>45659</v>
       </c>
@@ -1689,7 +1699,7 @@
         <v>16233.925499999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="10">
         <v>45661</v>
       </c>
@@ -1703,7 +1713,7 @@
         <v>189124.84080000001</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="10">
         <v>45666</v>
       </c>
@@ -1717,7 +1727,7 @@
         <v>184984.13250000001</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="10">
         <v>45669</v>
       </c>
@@ -1734,7 +1744,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="10">
         <v>45670</v>
       </c>
@@ -1748,7 +1758,7 @@
         <v>7936.5857999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="10">
         <v>45672</v>
       </c>
@@ -1762,7 +1772,7 @@
         <v>53349.581000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="10">
         <v>45673</v>
       </c>
@@ -1779,7 +1789,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="10">
         <v>45675</v>
       </c>
@@ -1793,7 +1803,7 @@
         <v>110883.6278</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="10">
         <v>45676</v>
       </c>
@@ -1810,7 +1820,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="10">
         <v>45678</v>
       </c>
@@ -1824,7 +1834,7 @@
         <v>32883.755000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="10">
         <v>45679</v>
       </c>
@@ -1838,7 +1848,7 @@
         <v>87871.07</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="10">
         <v>45683</v>
       </c>
@@ -1852,7 +1862,7 @@
         <v>24259.8043</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="10">
         <v>45685</v>
       </c>
@@ -1866,7 +1876,7 @@
         <v>48992.318999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="10">
         <v>45689</v>
       </c>
@@ -1880,7 +1890,7 @@
         <v>54454.12</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="10">
         <v>45692</v>
       </c>
@@ -1894,7 +1904,7 @@
         <v>383093.24040000001</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="10">
         <v>45693</v>
       </c>
@@ -1908,7 +1918,7 @@
         <v>40028.7768</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="10">
         <v>45696</v>
       </c>
@@ -1922,7 +1932,7 @@
         <v>226807.42050000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="10">
         <v>45698</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>75160.176000000007</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="10">
         <v>45704</v>
       </c>
@@ -1950,7 +1960,7 @@
         <v>36134.700000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="10">
         <v>45711</v>
       </c>
@@ -1964,7 +1974,7 @@
         <v>84679.918799999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="10">
         <v>45711</v>
       </c>
@@ -1978,7 +1988,7 @@
         <v>23332.072400000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="10">
         <v>45715</v>
       </c>
@@ -1992,7 +2002,7 @@
         <v>10319.955100000001</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="10">
         <v>45717</v>
       </c>
@@ -2006,7 +2016,7 @@
         <v>65787.625199999995</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="10">
         <v>45723</v>
       </c>
@@ -2020,7 +2030,7 @@
         <v>31059.9175</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="10">
         <v>45725</v>
       </c>
@@ -2034,7 +2044,7 @@
         <v>19154.4444</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="10">
         <v>45727</v>
       </c>
@@ -2048,7 +2058,7 @@
         <v>186952.83089999997</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="10">
         <v>45733</v>
       </c>
@@ -2062,7 +2072,7 @@
         <v>11217.342500000001</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="10">
         <v>45734</v>
       </c>
@@ -2076,7 +2086,7 @@
         <v>128944.27800000002</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="10">
         <v>45736</v>
       </c>
@@ -2090,7 +2100,7 @@
         <v>201347.19330000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="10">
         <v>45737</v>
       </c>
@@ -2104,7 +2114,7 @@
         <v>82048.35520000002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="10">
         <v>45737</v>
       </c>
@@ -2118,7 +2128,7 @@
         <v>222897.13379999998</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="10">
         <v>45739</v>
       </c>
@@ -2132,7 +2142,7 @@
         <v>263423.88540000003</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="10">
         <v>45742</v>
       </c>
@@ -2146,7 +2156,7 @@
         <v>55819.803200000009</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="10">
         <v>45746</v>
       </c>
@@ -2160,7 +2170,7 @@
         <v>28575.124100000001</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="10">
         <v>45746</v>
       </c>
@@ -2174,7 +2184,7 @@
         <v>184221.69640000002</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="10">
         <v>45751</v>
       </c>
@@ -2188,7 +2198,7 @@
         <v>26679.404699999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="10">
         <v>45751</v>
       </c>
@@ -2202,7 +2212,7 @@
         <v>114281.63760000002</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="10">
         <v>45756</v>
       </c>
@@ -2216,7 +2226,7 @@
         <v>18632.359799999998</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="10">
         <v>45759</v>
       </c>
@@ -2230,7 +2240,7 @@
         <v>220944.25469999999</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="10">
         <v>45761</v>
       </c>
@@ -2244,7 +2254,7 @@
         <v>64178.069999999992</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="10">
         <v>45763</v>
       </c>
